--- a/images/women_power_all.xlsx
+++ b/images/women_power_all.xlsx
@@ -1,86 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dascot R\enonkishu\images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353C6570-8CF3-46E6-8D75-14C03361A99F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">women_power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proportion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proportion_low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proportion_upp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_upp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enonkishu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strongly disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;i&gt;Don't Know&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do not want to answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strongly agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbokishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ol Chorro</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>women_power</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>proportion_low</t>
+  </si>
+  <si>
+    <t>proportion_upp</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>total_low</t>
+  </si>
+  <si>
+    <t>total_upp</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Enonkishu</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>Lemek</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>I do not want to answer</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>Mbokishi</t>
+  </si>
+  <si>
+    <t>Ol Chorro</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -108,13 +123,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,14 +421,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,588 +462,588 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="D2">
         <v>0.27154675979504</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.839564351316071</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>0.83956435131607099</v>
+      </c>
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="G2" t="n">
-        <v>7.33176251446607</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22.6682374855339</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2">
+        <v>7.3317625144660701</v>
+      </c>
+      <c r="H2">
+        <v>22.668237485533901</v>
+      </c>
+      <c r="I2">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.0153965843746817</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.459841028819126</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="D3">
+        <v>-1.53965843746817E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.45984102881912597</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0.415707778116409</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.4157077781164</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>-0.41570777811640902</v>
+      </c>
+      <c r="H3">
+        <v>12.415707778116399</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.0153965843746817</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.459841028819126</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="C4">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="D4">
+        <v>-1.53965843746817E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.45984102881912597</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>-0.415707778116409</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12.4157077781164</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4">
+        <v>-0.41570777811640902</v>
+      </c>
+      <c r="H4">
+        <v>12.415707778116399</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0634920634920635</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0120373268058351</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.114946800178292</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13.523808</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.56395032074704</v>
-      </c>
-      <c r="H5" t="n">
-        <v>24.483665679253</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>6.3492063492063502E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.2037326805835099E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.11494680017829199</v>
+      </c>
+      <c r="F5">
+        <v>13.523808000000001</v>
+      </c>
+      <c r="G5">
+        <v>2.5639503207470402</v>
+      </c>
+      <c r="H5">
+        <v>24.483665679253001</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0.238095238095238</v>
+      </c>
+      <c r="D6">
+        <v>0.148220920300902</v>
+      </c>
+      <c r="E6">
+        <v>0.32796955588957399</v>
+      </c>
+      <c r="F6">
+        <v>50.714280000000002</v>
+      </c>
+      <c r="G6">
+        <v>31.5710524667901</v>
+      </c>
+      <c r="H6">
+        <v>69.857507533209898</v>
+      </c>
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.238095238095238</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.148220920300902</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.327969555889574</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50.71428</v>
-      </c>
-      <c r="G6" t="n">
-        <v>31.5710524667901</v>
-      </c>
-      <c r="H6" t="n">
-        <v>69.8575075332099</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.0634920634920635</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0120373268058352</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.114946800178292</v>
-      </c>
-      <c r="F7" t="n">
-        <v>13.523808</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.56395032074704</v>
-      </c>
-      <c r="H7" t="n">
-        <v>24.483665679253</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="C7">
+        <v>6.3492063492063502E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.20373268058352E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.11494680017829199</v>
+      </c>
+      <c r="F7">
+        <v>13.523808000000001</v>
+      </c>
+      <c r="G7">
+        <v>2.5639503207470402</v>
+      </c>
+      <c r="H7">
+        <v>24.483665679253001</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0158730158730159</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.010500328359841</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0422463601058727</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.380952</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-2.23656968863825</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8.99847368863825</v>
-      </c>
-      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1.58730158730159E-2</v>
+      </c>
+      <c r="D8">
+        <v>-1.0500328359841E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.2246360105872703E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.3809520000000002</v>
+      </c>
+      <c r="G8">
+        <v>-2.2365696886382498</v>
+      </c>
+      <c r="H8">
+        <v>8.9984736886382493</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.0793650793650794</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0223265450012487</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.13640361372891</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="C9">
+        <v>7.9365079365079402E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.2326545001248699E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.13640361372890999</v>
+      </c>
+      <c r="F9">
         <v>16.90476</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.75555354942889</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>4.7555535494288899</v>
+      </c>
+      <c r="H9">
         <v>29.0539664505711</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.162118440449678</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.34581806748683</v>
-      </c>
-      <c r="F10" t="n">
-        <v>54.095232</v>
-      </c>
-      <c r="G10" t="n">
-        <v>34.5312239249389</v>
-      </c>
-      <c r="H10" t="n">
-        <v>73.6592400750611</v>
-      </c>
-      <c r="I10" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>0.25396825396825401</v>
+      </c>
+      <c r="D10">
+        <v>0.16211844044967799</v>
+      </c>
+      <c r="E10">
+        <v>0.34581806748683003</v>
+      </c>
+      <c r="F10">
+        <v>54.095232000000003</v>
+      </c>
+      <c r="G10">
+        <v>34.531223924938899</v>
+      </c>
+      <c r="H10">
+        <v>73.659240075061106</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.162118440449678</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.34581806748683</v>
-      </c>
-      <c r="F11" t="n">
-        <v>54.095232</v>
-      </c>
-      <c r="G11" t="n">
-        <v>34.5312239249389</v>
-      </c>
-      <c r="H11" t="n">
-        <v>73.6592400750611</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="C11">
+        <v>0.25396825396825401</v>
+      </c>
+      <c r="D11">
+        <v>0.16211844044967799</v>
+      </c>
+      <c r="E11">
+        <v>0.34581806748683003</v>
+      </c>
+      <c r="F11">
+        <v>54.095232000000003</v>
+      </c>
+      <c r="G11">
+        <v>34.531223924938899</v>
+      </c>
+      <c r="H11">
+        <v>73.659240075061106</v>
+      </c>
+      <c r="I11">
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>4.3478260869565202E-2</v>
+      </c>
+      <c r="D12">
+        <v>-1.86474648016881E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.105603986540819</v>
+      </c>
+      <c r="F12">
+        <v>2.086957</v>
+      </c>
+      <c r="G12">
+        <v>-0.895078515603144</v>
+      </c>
+      <c r="H12">
+        <v>5.0689925156031403</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0434782608695652</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.0186474648016881</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.105603986540819</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.086957</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.895078515603144</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.06899251560314</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.434782608695652</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.283763532127736</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.585801685263569</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D13">
+        <v>0.28376353212773597</v>
+      </c>
+      <c r="E13">
+        <v>0.58580168526356902</v>
+      </c>
+      <c r="F13">
         <v>20.86957</v>
       </c>
-      <c r="G13" t="n">
-        <v>13.6206526635302</v>
-      </c>
-      <c r="H13" t="n">
-        <v>28.1184873364698</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G13">
+        <v>13.620652663530199</v>
+      </c>
+      <c r="H13">
+        <v>28.118487336469801</v>
+      </c>
+      <c r="I13">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.0434782608695652</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.0186474648016881</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="C14">
+        <v>4.3478260869565202E-2</v>
+      </c>
+      <c r="D14">
+        <v>-1.86474648016881E-2</v>
+      </c>
+      <c r="E14">
         <v>0.105603986540819</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>2.086957</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-0.895078515603144</v>
       </c>
-      <c r="H14" t="n">
-        <v>5.06899251560314</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14">
+        <v>5.0689925156031403</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="D15">
+        <v>0.24262679410623</v>
+      </c>
+      <c r="E15">
+        <v>0.53998190154594305</v>
+      </c>
+      <c r="F15">
+        <v>18.782613000000001</v>
+      </c>
+      <c r="G15">
+        <v>11.6460887859938</v>
+      </c>
+      <c r="H15">
+        <v>25.919137214006199</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.24262679410623</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.539981901545943</v>
-      </c>
-      <c r="F15" t="n">
-        <v>18.782613</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11.6460887859938</v>
-      </c>
-      <c r="H15" t="n">
-        <v>25.9191372140062</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.0434782608695652</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.0186474648016881</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="C16">
+        <v>4.3478260869565202E-2</v>
+      </c>
+      <c r="D16">
+        <v>-1.86474648016881E-2</v>
+      </c>
+      <c r="E16">
         <v>0.105603986540819</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>2.086957</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-0.895078515603144</v>
       </c>
-      <c r="H16" t="n">
-        <v>5.06899251560314</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>5.0689925156031403</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>0.105263157894737</v>
+      </c>
+      <c r="D17">
+        <v>-2.3633613550423E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.23415992933989699</v>
+      </c>
+      <c r="F17">
+        <v>10.526316</v>
+      </c>
+      <c r="G17">
+        <v>-2.36336140230953</v>
+      </c>
+      <c r="H17">
+        <v>23.4159934023095</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.105263157894737</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.023633613550423</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.234159929339897</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10.526316</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-2.36336140230953</v>
-      </c>
-      <c r="H17" t="n">
-        <v>23.4159934023095</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.210526315789474</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.039296966554634</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.381755665024313</v>
-      </c>
-      <c r="F18" t="n">
-        <v>21.052632</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.92969673405735</v>
-      </c>
-      <c r="H18" t="n">
-        <v>38.1755672659426</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="C18">
+        <v>0.21052631578947401</v>
+      </c>
+      <c r="D18">
+        <v>3.9296966554634001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.38175566502431302</v>
+      </c>
+      <c r="F18">
+        <v>21.052631999999999</v>
+      </c>
+      <c r="G18">
+        <v>3.9296967340573499</v>
+      </c>
+      <c r="H18">
+        <v>38.175567265942597</v>
+      </c>
+      <c r="I18">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.105263157894737</v>
       </c>
-      <c r="D19" t="n">
-        <v>-0.023633613550423</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.234159929339897</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="D19">
+        <v>-2.3633613550423E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.23415992933989699</v>
+      </c>
+      <c r="F19">
         <v>10.526316</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-2.36336140230953</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>23.4159934023095</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>2</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.315789473684211</v>
-      </c>
-      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0.31578947368421101</v>
+      </c>
+      <c r="D20">
         <v>0.120557977630929</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.511020969737493</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>31.578948</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>12.0557980042088</v>
       </c>
-      <c r="H20" t="n">
-        <v>51.1020979957912</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20">
+        <v>51.102097995791198</v>
+      </c>
+      <c r="I20">
         <v>6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.263157894736842</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0782090593454891</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.448106730128195</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="C21">
+        <v>0.26315789473684198</v>
+      </c>
+      <c r="D21">
+        <v>7.8209059345489093E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.44810673012819502</v>
+      </c>
+      <c r="F21">
         <v>26.31579</v>
       </c>
-      <c r="G21" t="n">
-        <v>7.82090609096703</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G21">
+        <v>7.8209060909670303</v>
+      </c>
+      <c r="H21">
         <v>44.810673909033</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>